--- a/7/3/4/Mercado Externo 2008 a 2021 - Trimestral.xlsx
+++ b/7/3/4/Mercado Externo 2008 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="61">
   <si>
     <t>Serie</t>
   </si>
@@ -194,6 +194,9 @@
   </si>
   <si>
     <t>01-01-2021</t>
+  </si>
+  <si>
+    <t>01-04-2021</t>
   </si>
 </sst>
 </file>
@@ -551,7 +554,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P53"/>
+  <dimension ref="A1:P54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3180,13 +3183,13 @@
         <v>2651</v>
       </c>
       <c r="H53">
-        <v>34107</v>
+        <v>34096</v>
       </c>
       <c r="I53">
         <v>0</v>
       </c>
       <c r="J53">
-        <v>34107</v>
+        <v>34096</v>
       </c>
       <c r="K53">
         <v>17277</v>
@@ -3198,13 +3201,63 @@
         <v>17277</v>
       </c>
       <c r="N53">
-        <v>63120</v>
+        <v>63109</v>
       </c>
       <c r="O53">
         <v>1124</v>
       </c>
       <c r="P53">
-        <v>61996</v>
+        <v>61985</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16">
+      <c r="A54" t="s">
+        <v>60</v>
+      </c>
+      <c r="B54">
+        <v>8996</v>
+      </c>
+      <c r="C54">
+        <v>767</v>
+      </c>
+      <c r="D54">
+        <v>8229</v>
+      </c>
+      <c r="E54">
+        <v>3045</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>3045</v>
+      </c>
+      <c r="H54">
+        <v>34584</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>34584</v>
+      </c>
+      <c r="K54">
+        <v>20120</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>20120</v>
+      </c>
+      <c r="N54">
+        <v>66745</v>
+      </c>
+      <c r="O54">
+        <v>767</v>
+      </c>
+      <c r="P54">
+        <v>65977</v>
       </c>
     </row>
   </sheetData>
